--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H2">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.21196086498183</v>
+        <v>6.588395333333334</v>
       </c>
       <c r="N2">
-        <v>6.21196086498183</v>
+        <v>19.765186</v>
       </c>
       <c r="O2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877385</v>
       </c>
       <c r="P2">
-        <v>0.6316984926982493</v>
+        <v>0.6088932199877386</v>
       </c>
       <c r="Q2">
-        <v>3.436756151363256</v>
+        <v>0.4160923034084444</v>
       </c>
       <c r="R2">
-        <v>3.436756151363256</v>
+        <v>3.744830730676</v>
       </c>
       <c r="S2">
-        <v>0.6316984926982493</v>
+        <v>0.0529308388023297</v>
       </c>
       <c r="T2">
-        <v>0.6316984926982493</v>
+        <v>0.05293083880232972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H3">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30448680721225</v>
+        <v>2.450022</v>
       </c>
       <c r="N3">
-        <v>2.30448680721225</v>
+        <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="P3">
-        <v>0.2343448186812165</v>
+        <v>0.2264286991208885</v>
       </c>
       <c r="Q3">
-        <v>1.274953172205044</v>
+        <v>0.154731956084</v>
       </c>
       <c r="R3">
-        <v>1.274953172205044</v>
+        <v>1.392587604756</v>
       </c>
       <c r="S3">
-        <v>0.2343448186812165</v>
+        <v>0.01968335428932894</v>
       </c>
       <c r="T3">
-        <v>0.2343448186812165</v>
+        <v>0.01968335428932894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -655,49 +664,1351 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H4">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.31729569871051</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>1.31729569871051</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.1339566886205344</v>
+        <v>0.002476306759889554</v>
       </c>
       <c r="P4">
-        <v>0.1339566886205344</v>
+        <v>0.002476306759889555</v>
       </c>
       <c r="Q4">
-        <v>0.7287914708588471</v>
+        <v>0.001692205053111111</v>
       </c>
       <c r="R4">
-        <v>0.7287914708588471</v>
+        <v>0.015229845478</v>
       </c>
       <c r="S4">
-        <v>0.1339566886205344</v>
+        <v>0.0002152643347473516</v>
       </c>
       <c r="T4">
-        <v>0.1339566886205344</v>
+        <v>0.0002152643347473517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.189466</v>
+      </c>
+      <c r="I5">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J5">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.002428</v>
+      </c>
+      <c r="N5">
+        <v>0.007284</v>
+      </c>
+      <c r="O5">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P5">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q5">
+        <v>0.0001533411493333333</v>
+      </c>
+      <c r="R5">
+        <v>0.001380070344</v>
+      </c>
+      <c r="S5">
+        <v>1.950643064204756E-05</v>
+      </c>
+      <c r="T5">
+        <v>1.950643064204757E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.189466</v>
+      </c>
+      <c r="I6">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J6">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.139771</v>
+      </c>
+      <c r="O6">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P6">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q6">
+        <v>0.002942428031777778</v>
+      </c>
+      <c r="R6">
+        <v>0.026481852286</v>
+      </c>
+      <c r="S6">
+        <v>0.0003743044092901743</v>
+      </c>
+      <c r="T6">
+        <v>0.0003743044092901745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.189466</v>
+      </c>
+      <c r="I7">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J7">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.118151</v>
+      </c>
+      <c r="O7">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P7">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q7">
+        <v>0.1077461774851111</v>
+      </c>
+      <c r="R7">
+        <v>0.969715597366</v>
+      </c>
+      <c r="S7">
+        <v>0.01370632310502833</v>
+      </c>
+      <c r="T7">
+        <v>0.01370632310502834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.028136</v>
+      </c>
+      <c r="H8">
+        <v>0.084408</v>
+      </c>
+      <c r="I8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.588395333333334</v>
+      </c>
+      <c r="N8">
+        <v>19.765186</v>
+      </c>
+      <c r="O8">
+        <v>0.6088932199877385</v>
+      </c>
+      <c r="P8">
+        <v>0.6088932199877386</v>
+      </c>
+      <c r="Q8">
+        <v>0.1853710910986666</v>
+      </c>
+      <c r="R8">
+        <v>1.668339819888</v>
+      </c>
+      <c r="S8">
+        <v>0.02358093928001354</v>
+      </c>
+      <c r="T8">
+        <v>0.02358093928001354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.028136</v>
+      </c>
+      <c r="H9">
+        <v>0.084408</v>
+      </c>
+      <c r="I9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.450022</v>
+      </c>
+      <c r="N9">
+        <v>7.350066</v>
+      </c>
+      <c r="O9">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="P9">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="Q9">
+        <v>0.068933818992</v>
+      </c>
+      <c r="R9">
+        <v>0.6204043709279999</v>
+      </c>
+      <c r="S9">
+        <v>0.0087690275239551</v>
+      </c>
+      <c r="T9">
+        <v>0.0087690275239551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.028136</v>
+      </c>
+      <c r="H10">
+        <v>0.084408</v>
+      </c>
+      <c r="I10">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J10">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.080383</v>
+      </c>
+      <c r="O10">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P10">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q10">
+        <v>0.0007538853626666666</v>
+      </c>
+      <c r="R10">
+        <v>0.006784968264</v>
+      </c>
+      <c r="S10">
+        <v>9.590128026851497E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.590128026851498E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.028136</v>
+      </c>
+      <c r="H11">
+        <v>0.084408</v>
+      </c>
+      <c r="I11">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J11">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002428</v>
+      </c>
+      <c r="N11">
+        <v>0.007284</v>
+      </c>
+      <c r="O11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P11">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q11">
+        <v>6.831420799999999E-05</v>
+      </c>
+      <c r="R11">
+        <v>0.000614827872</v>
+      </c>
+      <c r="S11">
+        <v>8.690207201471245E-06</v>
+      </c>
+      <c r="T11">
+        <v>8.690207201471245E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.028136</v>
+      </c>
+      <c r="H12">
+        <v>0.084408</v>
+      </c>
+      <c r="I12">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J12">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.139771</v>
+      </c>
+      <c r="O12">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P12">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q12">
+        <v>0.001310865618666667</v>
+      </c>
+      <c r="R12">
+        <v>0.011797790568</v>
+      </c>
+      <c r="S12">
+        <v>0.0001667543864300985</v>
+      </c>
+      <c r="T12">
+        <v>0.0001667543864300985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.028136</v>
+      </c>
+      <c r="H13">
+        <v>0.084408</v>
+      </c>
+      <c r="I13">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J13">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.118151</v>
+      </c>
+      <c r="O13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P13">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q13">
+        <v>0.04800143217866667</v>
+      </c>
+      <c r="R13">
+        <v>0.432012889608</v>
+      </c>
+      <c r="S13">
+        <v>0.006106231833939765</v>
+      </c>
+      <c r="T13">
+        <v>0.006106231833939765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.073382</v>
+      </c>
+      <c r="H14">
+        <v>0.220146</v>
+      </c>
+      <c r="I14">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J14">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.588395333333334</v>
+      </c>
+      <c r="N14">
+        <v>19.765186</v>
+      </c>
+      <c r="O14">
+        <v>0.6088932199877385</v>
+      </c>
+      <c r="P14">
+        <v>0.6088932199877386</v>
+      </c>
+      <c r="Q14">
+        <v>0.4834696263506667</v>
+      </c>
+      <c r="R14">
+        <v>4.351226637156</v>
+      </c>
+      <c r="S14">
+        <v>0.06150186544803646</v>
+      </c>
+      <c r="T14">
+        <v>0.06150186544803647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.073382</v>
+      </c>
+      <c r="H15">
+        <v>0.220146</v>
+      </c>
+      <c r="I15">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J15">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.450022</v>
+      </c>
+      <c r="N15">
+        <v>7.350066</v>
+      </c>
+      <c r="O15">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="P15">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="Q15">
+        <v>0.179787514404</v>
+      </c>
+      <c r="R15">
+        <v>1.618087629636</v>
+      </c>
+      <c r="S15">
+        <v>0.02287065601943678</v>
+      </c>
+      <c r="T15">
+        <v>0.02287065601943678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.073382</v>
+      </c>
+      <c r="H16">
+        <v>0.220146</v>
+      </c>
+      <c r="I16">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J16">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.080383</v>
+      </c>
+      <c r="O16">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P16">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q16">
+        <v>0.001966221768666667</v>
+      </c>
+      <c r="R16">
+        <v>0.017695995918</v>
+      </c>
+      <c r="S16">
+        <v>0.0002501218278598296</v>
+      </c>
+      <c r="T16">
+        <v>0.0002501218278598296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.073382</v>
+      </c>
+      <c r="H17">
+        <v>0.220146</v>
+      </c>
+      <c r="I17">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J17">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.002428</v>
+      </c>
+      <c r="N17">
+        <v>0.007284</v>
+      </c>
+      <c r="O17">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P17">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q17">
+        <v>0.000178171496</v>
+      </c>
+      <c r="R17">
+        <v>0.001603543464</v>
+      </c>
+      <c r="S17">
+        <v>2.266508334014654E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.266508334014654E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.073382</v>
+      </c>
+      <c r="H18">
+        <v>0.220146</v>
+      </c>
+      <c r="I18">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J18">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.139771</v>
+      </c>
+      <c r="O18">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P18">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q18">
+        <v>0.003418891840666667</v>
+      </c>
+      <c r="R18">
+        <v>0.030770026566</v>
+      </c>
+      <c r="S18">
+        <v>0.0004349150691289981</v>
+      </c>
+      <c r="T18">
+        <v>0.0004349150691289981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.073382</v>
+      </c>
+      <c r="H19">
+        <v>0.220146</v>
+      </c>
+      <c r="I19">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J19">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.118151</v>
+      </c>
+      <c r="O19">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P19">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q19">
+        <v>0.1251933855606667</v>
+      </c>
+      <c r="R19">
+        <v>1.126740470046</v>
+      </c>
+      <c r="S19">
+        <v>0.01592577141164942</v>
+      </c>
+      <c r="T19">
+        <v>0.01592577141164942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.685514</v>
+      </c>
+      <c r="I20">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J20">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.588395333333334</v>
+      </c>
+      <c r="N20">
+        <v>19.765186</v>
+      </c>
+      <c r="O20">
+        <v>0.6088932199877385</v>
+      </c>
+      <c r="P20">
+        <v>0.6088932199877386</v>
+      </c>
+      <c r="Q20">
+        <v>3.701610857289333</v>
+      </c>
+      <c r="R20">
+        <v>33.314497715604</v>
+      </c>
+      <c r="S20">
+        <v>0.4708795764573588</v>
+      </c>
+      <c r="T20">
+        <v>0.470879576457359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.685514</v>
+      </c>
+      <c r="I21">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J21">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.450022</v>
+      </c>
+      <c r="N21">
+        <v>7.350066</v>
+      </c>
+      <c r="O21">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="P21">
+        <v>0.2264286991208885</v>
+      </c>
+      <c r="Q21">
+        <v>1.376515460436</v>
+      </c>
+      <c r="R21">
+        <v>12.388639143924</v>
+      </c>
+      <c r="S21">
+        <v>0.1751056612881677</v>
+      </c>
+      <c r="T21">
+        <v>0.1751056612881677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.685514</v>
+      </c>
+      <c r="I22">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J22">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.080383</v>
+      </c>
+      <c r="O22">
+        <v>0.002476306759889554</v>
+      </c>
+      <c r="P22">
+        <v>0.002476306759889555</v>
+      </c>
+      <c r="Q22">
+        <v>0.01505407465133333</v>
+      </c>
+      <c r="R22">
+        <v>0.135486671862</v>
+      </c>
+      <c r="S22">
+        <v>0.001915019317013858</v>
+      </c>
+      <c r="T22">
+        <v>0.001915019317013859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.685514</v>
+      </c>
+      <c r="I23">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J23">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.002428</v>
+      </c>
+      <c r="N23">
+        <v>0.007284</v>
+      </c>
+      <c r="O23">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="P23">
+        <v>0.0002243934468610964</v>
+      </c>
+      <c r="Q23">
+        <v>0.001364142664</v>
+      </c>
+      <c r="R23">
+        <v>0.012277283976</v>
+      </c>
+      <c r="S23">
+        <v>0.0001735317256774311</v>
+      </c>
+      <c r="T23">
+        <v>0.0001735317256774311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.685514</v>
+      </c>
+      <c r="I24">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J24">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.139771</v>
+      </c>
+      <c r="O24">
+        <v>0.004305834220376484</v>
+      </c>
+      <c r="P24">
+        <v>0.004305834220376485</v>
+      </c>
+      <c r="Q24">
+        <v>0.02617621969933333</v>
+      </c>
+      <c r="R24">
+        <v>0.235585977294</v>
+      </c>
+      <c r="S24">
+        <v>0.003329860355527213</v>
+      </c>
+      <c r="T24">
+        <v>0.003329860355527214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.685514</v>
+      </c>
+      <c r="I25">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J25">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.706050333333333</v>
+      </c>
+      <c r="N25">
+        <v>5.118151</v>
+      </c>
+      <c r="O25">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="P25">
+        <v>0.157671546464246</v>
+      </c>
+      <c r="Q25">
+        <v>0.9585239071793333</v>
+      </c>
+      <c r="R25">
+        <v>8.626715164614</v>
+      </c>
+      <c r="S25">
+        <v>0.1219332201136284</v>
+      </c>
+      <c r="T25">
+        <v>0.1219332201136285</v>
       </c>
     </row>
   </sheetData>
